--- a/Code/Results/Cases/Case_4_132/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_132/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>32.52617224910404</v>
+        <v>35.91501269785719</v>
       </c>
       <c r="C2">
-        <v>23.29356507262529</v>
+        <v>21.05472306107833</v>
       </c>
       <c r="D2">
-        <v>7.309517590688931</v>
+        <v>11.81038654205563</v>
       </c>
       <c r="E2">
-        <v>5.743828686168009</v>
+        <v>10.25996335714982</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.140752841415303</v>
+        <v>3.857632238152332</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>35.1640305058131</v>
+        <v>46.05477534902439</v>
       </c>
       <c r="J2">
-        <v>4.502903883817627</v>
+        <v>6.684132768814813</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>10.96536958689402</v>
+        <v>16.42363388547086</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>16.78062231389505</v>
+        <v>24.34213714278981</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>30.73092782861157</v>
+        <v>35.67391653507793</v>
       </c>
       <c r="C3">
-        <v>21.81332229652238</v>
+        <v>20.74544779757803</v>
       </c>
       <c r="D3">
-        <v>7.206992315259451</v>
+        <v>11.82855766992023</v>
       </c>
       <c r="E3">
-        <v>5.777389865479072</v>
+        <v>10.27656689076776</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.157954498874968</v>
+        <v>3.863338655376271</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>34.30907242002496</v>
+        <v>46.00876633208192</v>
       </c>
       <c r="J3">
-        <v>4.423027055217141</v>
+        <v>6.665841935186831</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>10.69549343070787</v>
+        <v>16.4322787666449</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>16.92277977219847</v>
+        <v>24.38204253554182</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>29.616347253762</v>
+        <v>35.5357440405914</v>
       </c>
       <c r="C4">
-        <v>20.88595208971813</v>
+        <v>20.5604314435417</v>
       </c>
       <c r="D4">
-        <v>7.149207066213048</v>
+        <v>11.84170954801274</v>
       </c>
       <c r="E4">
-        <v>5.799038212069455</v>
+        <v>10.28737201605524</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.16865627667478</v>
+        <v>3.867018243009843</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>33.81158127798123</v>
+        <v>45.98971517963759</v>
       </c>
       <c r="J4">
-        <v>4.374091039768137</v>
+        <v>6.654353698137309</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>10.53726908165847</v>
+        <v>16.44085626744596</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>17.01604371150807</v>
+        <v>24.40849891579232</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>29.15927233532896</v>
+        <v>35.48195996014999</v>
       </c>
       <c r="C5">
-        <v>20.50343649542004</v>
+        <v>20.48635392657211</v>
       </c>
       <c r="D5">
-        <v>7.12690507549408</v>
+        <v>11.84756987604977</v>
       </c>
       <c r="E5">
-        <v>5.808122843380763</v>
+        <v>10.29192919367982</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.173059868802908</v>
+        <v>3.86856212336413</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>33.61544635498111</v>
+        <v>45.98426012058769</v>
       </c>
       <c r="J5">
-        <v>4.354150304872426</v>
+        <v>6.649607146841927</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>10.47461962993668</v>
+        <v>16.44517225111263</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>17.05547621075327</v>
+        <v>24.41977051677934</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>29.08321084014812</v>
+        <v>35.47318264966792</v>
       </c>
       <c r="C6">
-        <v>20.43964561603805</v>
+        <v>20.47413562473184</v>
       </c>
       <c r="D6">
-        <v>7.123275618778542</v>
+        <v>11.84857320452143</v>
       </c>
       <c r="E6">
-        <v>5.80964723873733</v>
+        <v>10.29269522525546</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.173793850104226</v>
+        <v>3.868821172321689</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>33.58326827661823</v>
+        <v>45.98349357355515</v>
       </c>
       <c r="J6">
-        <v>4.350838529522462</v>
+        <v>6.648815052951812</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>10.46432576675273</v>
+        <v>16.44593842698471</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>17.06210807919572</v>
+        <v>24.42167174778676</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>29.61019423028976</v>
+        <v>35.53500842397684</v>
       </c>
       <c r="C7">
-        <v>20.88081184698857</v>
+        <v>20.55942695301643</v>
       </c>
       <c r="D7">
-        <v>7.148901316243532</v>
+        <v>11.84178655563693</v>
       </c>
       <c r="E7">
-        <v>5.799159665391917</v>
+        <v>10.28743285154465</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.168715483730628</v>
+        <v>3.867038884197037</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>33.80890980888091</v>
+        <v>45.98963227108643</v>
       </c>
       <c r="J7">
-        <v>4.373822139626713</v>
+        <v>6.654289947982401</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>10.5364168304664</v>
+        <v>16.44091115404662</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>17.01656982876955</v>
+        <v>24.40864894419513</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>31.90980869506305</v>
+        <v>35.82986291422418</v>
       </c>
       <c r="C8">
-        <v>22.78700593601542</v>
+        <v>20.94712762484483</v>
       </c>
       <c r="D8">
-        <v>7.273061524094744</v>
+        <v>11.81623749947967</v>
       </c>
       <c r="E8">
-        <v>5.755184785424471</v>
+        <v>10.26556184280313</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.146659641747247</v>
+        <v>3.859563442895485</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>34.86334659673316</v>
+        <v>46.03699989670122</v>
       </c>
       <c r="J8">
-        <v>4.475322747775992</v>
+        <v>6.677879412829624</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>10.87072876490382</v>
+        <v>16.42593519073921</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>16.82834756101161</v>
+        <v>24.35549028980319</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>36.3203471724313</v>
+        <v>36.48423574539426</v>
       </c>
       <c r="C9">
-        <v>26.38296709962651</v>
+        <v>21.74200461079514</v>
       </c>
       <c r="D9">
-        <v>7.560199254036898</v>
+        <v>11.78199592939938</v>
       </c>
       <c r="E9">
-        <v>5.677198541474812</v>
+        <v>10.22749477009421</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.104133554816096</v>
+        <v>3.846289801909534</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>37.16517004482199</v>
+        <v>46.20302855065174</v>
       </c>
       <c r="J9">
-        <v>4.676656703992977</v>
+        <v>6.722105944895818</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>11.5887519415083</v>
+        <v>16.42257013858458</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>16.51082380730085</v>
+        <v>24.2667992212551</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>39.51153077459259</v>
+        <v>37.00836729418319</v>
       </c>
       <c r="C10">
-        <v>28.95513995040711</v>
+        <v>22.34147508576067</v>
       </c>
       <c r="D10">
-        <v>7.802147505357214</v>
+        <v>11.76655028882767</v>
       </c>
       <c r="E10">
-        <v>5.624955670695332</v>
+        <v>10.20243598856209</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.072692443067315</v>
+        <v>3.837369210233996</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>39.027069828345</v>
+        <v>46.36973498490381</v>
       </c>
       <c r="J10">
-        <v>4.828450119561001</v>
+        <v>6.753378033529753</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>12.16024602694232</v>
+        <v>16.43601940605278</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>16.31608691672513</v>
+        <v>24.21118435527972</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>40.95914714178262</v>
+        <v>37.25549673362559</v>
       </c>
       <c r="C11">
-        <v>30.15584065876045</v>
+        <v>22.61635460565452</v>
       </c>
       <c r="D11">
-        <v>7.920181972877244</v>
+        <v>11.76164034673846</v>
       </c>
       <c r="E11">
-        <v>5.602313761237053</v>
+        <v>10.19166133064734</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.058165103932016</v>
+        <v>3.833488726345462</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>39.91962536075847</v>
+        <v>46.45528538759513</v>
       </c>
       <c r="J11">
-        <v>4.899079079361146</v>
+        <v>6.76734324200323</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>12.43173042889543</v>
+        <v>16.44560402606224</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>16.2379521813982</v>
+        <v>24.18797125869058</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>41.51653277619291</v>
+        <v>37.35026352782646</v>
       </c>
       <c r="C12">
-        <v>30.61201609941568</v>
+        <v>22.72065912716846</v>
       </c>
       <c r="D12">
-        <v>7.966156900699203</v>
+        <v>11.76008589711184</v>
       </c>
       <c r="E12">
-        <v>5.593906175772587</v>
+        <v>10.18767058378277</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.052612547650374</v>
+        <v>3.83204459596665</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>40.26510490687962</v>
+        <v>46.48907516604144</v>
       </c>
       <c r="J12">
-        <v>4.926130951179005</v>
+        <v>6.772594282971401</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>12.53641741200778</v>
+        <v>16.44973207205572</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>16.21009335036708</v>
+        <v>24.17948237496434</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>41.38946321159631</v>
+        <v>37.3298022202136</v>
       </c>
       <c r="C13">
-        <v>30.51380599320083</v>
+        <v>22.69818734126365</v>
       </c>
       <c r="D13">
-        <v>7.956196109371609</v>
+        <v>11.76040711059719</v>
       </c>
       <c r="E13">
-        <v>5.595709393305411</v>
+        <v>10.18852609435026</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.05381102365522</v>
+        <v>3.832354492230624</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>40.19034907135899</v>
+        <v>46.48173601547916</v>
       </c>
       <c r="J13">
-        <v>4.920289753604586</v>
+        <v>6.771465032283574</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>12.51378315370845</v>
+        <v>16.44882085202581</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>16.21601218341264</v>
+        <v>24.18129717996948</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>41.0042578181156</v>
+        <v>37.26326991123002</v>
       </c>
       <c r="C14">
-        <v>30.19338809258008</v>
+        <v>22.62493208200134</v>
       </c>
       <c r="D14">
-        <v>7.923937882224711</v>
+        <v>11.76150634917033</v>
       </c>
       <c r="E14">
-        <v>5.60161869200502</v>
+        <v>10.19133122071098</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.05770944546978</v>
+        <v>3.833369410503339</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>39.94789184926307</v>
+        <v>46.45803738531892</v>
       </c>
       <c r="J14">
-        <v>4.901297992241084</v>
+        <v>6.767775994333662</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>12.44030383386323</v>
+        <v>16.44593365169356</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>16.23562408427279</v>
+        <v>24.18726682428051</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>40.76837849934992</v>
+        <v>37.22266915409218</v>
       </c>
       <c r="C15">
-        <v>29.9970000740897</v>
+        <v>22.58008602512001</v>
       </c>
       <c r="D15">
-        <v>7.904349634698778</v>
+        <v>11.76221937732318</v>
       </c>
       <c r="E15">
-        <v>5.605260167166047</v>
+        <v>10.19306106852305</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.060090014943795</v>
+        <v>3.833994369172411</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>39.80038695205136</v>
+        <v>46.44370266786381</v>
       </c>
       <c r="J15">
-        <v>4.889707551939924</v>
+        <v>6.765511502889463</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>12.39554857367218</v>
+        <v>16.44423008217836</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>16.2478697091673</v>
+        <v>24.19096269844512</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>39.41691116428691</v>
+        <v>36.99238620866214</v>
       </c>
       <c r="C16">
-        <v>28.87910648219813</v>
+        <v>22.32354632288603</v>
       </c>
       <c r="D16">
-        <v>7.794604645141878</v>
+        <v>11.76691379694924</v>
       </c>
       <c r="E16">
-        <v>5.626458341449444</v>
+        <v>10.20315266996039</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.073635779908154</v>
+        <v>3.837626363977189</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>38.96973074426035</v>
+        <v>46.36433930526083</v>
       </c>
       <c r="J16">
-        <v>4.823872458752566</v>
+        <v>6.752460146774516</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>12.14275337054589</v>
+        <v>16.4354627973653</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>16.32142172437361</v>
+        <v>24.21274348736426</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>38.58731334158343</v>
+        <v>36.85329650091154</v>
       </c>
       <c r="C17">
-        <v>28.21193872397669</v>
+        <v>22.16665375550928</v>
       </c>
       <c r="D17">
-        <v>7.729405778916136</v>
+        <v>11.77033610857333</v>
       </c>
       <c r="E17">
-        <v>5.639753232647789</v>
+        <v>10.20950322180014</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.081875792262939</v>
+        <v>3.839899801078811</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>38.47241440268984</v>
+        <v>46.31813878778836</v>
       </c>
       <c r="J17">
-        <v>4.783939618619285</v>
+        <v>6.744386951371406</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>11.99076081696488</v>
+        <v>16.43097236051115</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>16.36936618109953</v>
+        <v>24.22664064876396</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>38.10969946436047</v>
+        <v>36.77411876730594</v>
       </c>
       <c r="C18">
-        <v>27.8273705490352</v>
+        <v>22.07662408798174</v>
       </c>
       <c r="D18">
-        <v>7.692645987426852</v>
+        <v>11.77250370784539</v>
       </c>
       <c r="E18">
-        <v>5.647505456015216</v>
+        <v>10.21321471835117</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.086595435824701</v>
+        <v>3.841224144977589</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>38.19059210242414</v>
+        <v>46.29248016802153</v>
       </c>
       <c r="J18">
-        <v>4.76111406789126</v>
+        <v>6.739718920292042</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>11.90440504388257</v>
+        <v>16.4287158768942</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>16.3979102220096</v>
+        <v>24.23483022354695</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>37.94788844431876</v>
+        <v>36.74745388926959</v>
       </c>
       <c r="C19">
-        <v>27.69699802607246</v>
+        <v>22.04618085887602</v>
       </c>
       <c r="D19">
-        <v>7.680323462423075</v>
+        <v>11.77327181158328</v>
       </c>
       <c r="E19">
-        <v>5.65014821112833</v>
+        <v>10.21448148468984</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.088190543788979</v>
+        <v>3.841675423497732</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>38.09587212674433</v>
+        <v>46.28394977544475</v>
       </c>
       <c r="J19">
-        <v>4.753408122844887</v>
+        <v>6.738134183962691</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>11.87534373473821</v>
+        <v>16.4280079043626</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>16.40773484340843</v>
+        <v>24.23763674477119</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>38.67566679758873</v>
+        <v>36.86801813749467</v>
       </c>
       <c r="C20">
-        <v>28.28304057420605</v>
+        <v>22.1833341491466</v>
       </c>
       <c r="D20">
-        <v>7.736268773710139</v>
+        <v>11.76995117974907</v>
       </c>
       <c r="E20">
-        <v>5.638327037775264</v>
+        <v>10.20882110960747</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.081000802829429</v>
+        <v>3.839656060535841</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>38.52491170792188</v>
+        <v>46.32296226326257</v>
       </c>
       <c r="J20">
-        <v>4.788175245883706</v>
+        <v>6.745248895442357</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>12.00682888872633</v>
+        <v>16.43141660309265</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>16.3641607835076</v>
+        <v>24.22514094644653</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>41.11738472964105</v>
+        <v>37.28278046630648</v>
       </c>
       <c r="C21">
-        <v>30.28752620921366</v>
+        <v>22.64644391151966</v>
       </c>
       <c r="D21">
-        <v>7.933377020274847</v>
+        <v>11.76117519925072</v>
       </c>
       <c r="E21">
-        <v>5.599878419891636</v>
+        <v>10.19050486486036</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.05656595143986</v>
+        <v>3.833070618736864</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>40.01889549046665</v>
+        <v>46.46496045637836</v>
       </c>
       <c r="J21">
-        <v>4.90686729320127</v>
+        <v>6.768860564419779</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>12.46183327339569</v>
+        <v>16.44676816259936</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>16.22981460570763</v>
+        <v>24.18550520351687</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>42.81306153853831</v>
+        <v>37.56072181477339</v>
       </c>
       <c r="C22">
-        <v>31.61428119757414</v>
+        <v>22.95031362523637</v>
       </c>
       <c r="D22">
-        <v>8.069732610372437</v>
+        <v>11.7572166031452</v>
       </c>
       <c r="E22">
-        <v>5.575724334578242</v>
+        <v>10.17905492214125</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.040284825344874</v>
+        <v>3.82891416778088</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>41.03957638622682</v>
+        <v>46.56588545666956</v>
       </c>
       <c r="J22">
-        <v>4.986276255620887</v>
+        <v>6.784074947299635</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>12.77033191475203</v>
+        <v>16.45970708843205</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>16.15223543442897</v>
+        <v>24.16135848602793</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>41.89736545590803</v>
+        <v>37.41177327360928</v>
       </c>
       <c r="C23">
-        <v>30.90637365026179</v>
+        <v>22.78805501955755</v>
       </c>
       <c r="D23">
-        <v>7.996215517496758</v>
+        <v>11.75916663566725</v>
       </c>
       <c r="E23">
-        <v>5.58852434962809</v>
+        <v>10.18511846813027</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.049010333303172</v>
+        <v>3.831119114034911</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>40.49039040391865</v>
+        <v>46.51127828062978</v>
       </c>
       <c r="J23">
-        <v>4.94369454363158</v>
+        <v>6.775974554533112</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>12.60456840579064</v>
+        <v>16.45253551446789</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>16.19261640265083</v>
+        <v>24.17408475999057</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>38.63572433917407</v>
+        <v>36.86136002988139</v>
       </c>
       <c r="C24">
-        <v>28.25089861648783</v>
+        <v>22.17579240622461</v>
       </c>
       <c r="D24">
-        <v>7.733163768463092</v>
+        <v>11.77012458294628</v>
       </c>
       <c r="E24">
-        <v>5.638971481875156</v>
+        <v>10.20912930411486</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.08139643914338</v>
+        <v>3.839766201689229</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>38.50116499932136</v>
+        <v>46.32077875814375</v>
       </c>
       <c r="J24">
-        <v>4.786259912220549</v>
+        <v>6.74485929353143</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>11.99956133148818</v>
+        <v>16.43121474832915</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>16.36651110722942</v>
+        <v>24.22581833928936</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>35.13731359281646</v>
+        <v>36.29935841501833</v>
       </c>
       <c r="C25">
-        <v>25.42418171352393</v>
+        <v>21.5238433423931</v>
       </c>
       <c r="D25">
-        <v>7.477437604085779</v>
+        <v>11.78955653536539</v>
       </c>
       <c r="E25">
-        <v>5.697413284815752</v>
+        <v>10.23727986686331</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.1156197951266</v>
+        <v>3.849733690257686</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>36.51485576658408</v>
+        <v>46.15026320640271</v>
       </c>
       <c r="J25">
-        <v>4.621719460600344</v>
+        <v>6.710357217653325</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>11.38731208472464</v>
+        <v>16.42068832258454</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>16.59055176518096</v>
+        <v>24.28912086315821</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_132/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_132/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>35.91501269785719</v>
+        <v>32.52617224910405</v>
       </c>
       <c r="C2">
-        <v>21.05472306107833</v>
+        <v>23.29356507262533</v>
       </c>
       <c r="D2">
-        <v>11.81038654205563</v>
+        <v>7.309517590689042</v>
       </c>
       <c r="E2">
-        <v>10.25996335714982</v>
+        <v>5.743828686168011</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.857632238152332</v>
+        <v>2.140752841415826</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>46.05477534902439</v>
+        <v>35.16403050581313</v>
       </c>
       <c r="J2">
-        <v>6.684132768814813</v>
+        <v>4.50290388381763</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>16.42363388547086</v>
+        <v>10.96536958689399</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>24.34213714278981</v>
+        <v>16.78062231389502</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>35.67391653507793</v>
+        <v>30.73092782861169</v>
       </c>
       <c r="C3">
-        <v>20.74544779757803</v>
+        <v>21.81332229652237</v>
       </c>
       <c r="D3">
-        <v>11.82855766992023</v>
+        <v>7.206992315259589</v>
       </c>
       <c r="E3">
-        <v>10.27656689076776</v>
+        <v>5.77738986547926</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3.863338655376271</v>
+        <v>2.157954498875105</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>46.00876633208192</v>
+        <v>34.30907242002517</v>
       </c>
       <c r="J3">
-        <v>6.665841935186831</v>
+        <v>4.423027055217148</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>16.4322787666449</v>
+        <v>10.69549343070791</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>24.38204253554182</v>
+        <v>16.92277977219854</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>35.5357440405914</v>
+        <v>29.6163472537621</v>
       </c>
       <c r="C4">
-        <v>20.5604314435417</v>
+        <v>20.88595208971815</v>
       </c>
       <c r="D4">
-        <v>11.84170954801274</v>
+        <v>7.14920706621305</v>
       </c>
       <c r="E4">
-        <v>10.28737201605524</v>
+        <v>5.799038212069459</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3.867018243009843</v>
+        <v>2.168656276674778</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>45.98971517963759</v>
+        <v>33.81158127798129</v>
       </c>
       <c r="J4">
-        <v>6.654353698137309</v>
+        <v>4.374091039768069</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>16.44085626744596</v>
+        <v>10.53726908165844</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>24.40849891579232</v>
+        <v>17.01604371150808</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>35.48195996014999</v>
+        <v>29.15927233532892</v>
       </c>
       <c r="C5">
-        <v>20.48635392657211</v>
+        <v>20.50343649542003</v>
       </c>
       <c r="D5">
-        <v>11.84756987604977</v>
+        <v>7.12690507549419</v>
       </c>
       <c r="E5">
-        <v>10.29192919367982</v>
+        <v>5.808122843380826</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3.86856212336413</v>
+        <v>2.173059868803042</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>45.98426012058769</v>
+        <v>33.61544635498096</v>
       </c>
       <c r="J5">
-        <v>6.649607146841927</v>
+        <v>4.354150304872366</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>16.44517225111263</v>
+        <v>10.47461962993663</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>24.41977051677934</v>
+        <v>17.05547621075319</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>35.47318264966792</v>
+        <v>29.08321084014811</v>
       </c>
       <c r="C6">
-        <v>20.47413562473184</v>
+        <v>20.43964561603805</v>
       </c>
       <c r="D6">
-        <v>11.84857320452143</v>
+        <v>7.123275618778482</v>
       </c>
       <c r="E6">
-        <v>10.29269522525546</v>
+        <v>5.809647238737268</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.868821172321689</v>
+        <v>2.173793850104093</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>45.98349357355515</v>
+        <v>33.58326827661825</v>
       </c>
       <c r="J6">
-        <v>6.648815052951812</v>
+        <v>4.350838529522423</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>16.44593842698471</v>
+        <v>10.46432576675274</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>24.42167174778676</v>
+        <v>17.06210807919574</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>35.53500842397684</v>
+        <v>29.6101942302899</v>
       </c>
       <c r="C7">
-        <v>20.55942695301643</v>
+        <v>20.8808118469886</v>
       </c>
       <c r="D7">
-        <v>11.84178655563693</v>
+        <v>7.148901316243464</v>
       </c>
       <c r="E7">
-        <v>10.28743285154465</v>
+        <v>5.799159665391792</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3.867038884197037</v>
+        <v>2.168715483730769</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>45.98963227108643</v>
+        <v>33.8089098088811</v>
       </c>
       <c r="J7">
-        <v>6.654289947982401</v>
+        <v>4.373822139626644</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>16.44091115404662</v>
+        <v>10.53641683046638</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>24.40864894419513</v>
+        <v>17.01656982876963</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>35.82986291422418</v>
+        <v>31.90980869506307</v>
       </c>
       <c r="C8">
-        <v>20.94712762484483</v>
+        <v>22.78700593601543</v>
       </c>
       <c r="D8">
-        <v>11.81623749947967</v>
+        <v>7.273061524094657</v>
       </c>
       <c r="E8">
-        <v>10.26556184280313</v>
+        <v>5.755184785424406</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3.859563442895485</v>
+        <v>2.146659641747108</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>46.03699989670122</v>
+        <v>34.86334659673329</v>
       </c>
       <c r="J8">
-        <v>6.677879412829624</v>
+        <v>4.475322747775926</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>16.42593519073921</v>
+        <v>10.87072876490382</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>24.35549028980319</v>
+        <v>16.82834756101171</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>36.48423574539426</v>
+        <v>36.32034717243136</v>
       </c>
       <c r="C9">
-        <v>21.74200461079514</v>
+        <v>26.38296709962654</v>
       </c>
       <c r="D9">
-        <v>11.78199592939938</v>
+        <v>7.560199254036911</v>
       </c>
       <c r="E9">
-        <v>10.22749477009421</v>
+        <v>5.677198541474743</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.846289801909534</v>
+        <v>2.10413355481623</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>46.20302855065174</v>
+        <v>37.16517004482202</v>
       </c>
       <c r="J9">
-        <v>6.722105944895818</v>
+        <v>4.676656703992886</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>16.42257013858458</v>
+        <v>11.58875194150829</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>24.2667992212551</v>
+        <v>16.51082380730088</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>37.00836729418319</v>
+        <v>39.51153077459276</v>
       </c>
       <c r="C10">
-        <v>22.34147508576067</v>
+        <v>28.95513995040731</v>
       </c>
       <c r="D10">
-        <v>11.76655028882767</v>
+        <v>7.802147505357289</v>
       </c>
       <c r="E10">
-        <v>10.20243598856209</v>
+        <v>5.624955670695342</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3.837369210233996</v>
+        <v>2.072692443067309</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>46.36973498490381</v>
+        <v>39.027069828345</v>
       </c>
       <c r="J10">
-        <v>6.753378033529753</v>
+        <v>4.828450119561007</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>16.43601940605278</v>
+        <v>12.16024602694228</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>24.21118435527972</v>
+        <v>16.31608691672498</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>37.25549673362559</v>
+        <v>40.95914714178254</v>
       </c>
       <c r="C11">
-        <v>22.61635460565452</v>
+        <v>30.15584065876034</v>
       </c>
       <c r="D11">
-        <v>11.76164034673846</v>
+        <v>7.920181972877138</v>
       </c>
       <c r="E11">
-        <v>10.19166133064734</v>
+        <v>5.602313761237236</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3.833488726345462</v>
+        <v>2.058165103932002</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>46.45528538759513</v>
+        <v>39.91962536075845</v>
       </c>
       <c r="J11">
-        <v>6.76734324200323</v>
+        <v>4.899079079361269</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>16.44560402606224</v>
+        <v>12.43173042889545</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>24.18797125869058</v>
+        <v>16.23795218139829</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>37.35026352782646</v>
+        <v>41.5165327761929</v>
       </c>
       <c r="C12">
-        <v>22.72065912716846</v>
+        <v>30.61201609941576</v>
       </c>
       <c r="D12">
-        <v>11.76008589711184</v>
+        <v>7.966156900699121</v>
       </c>
       <c r="E12">
-        <v>10.18767058378277</v>
+        <v>5.59390617577252</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3.83204459596665</v>
+        <v>2.052612547650374</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>46.48907516604144</v>
+        <v>40.26510490687967</v>
       </c>
       <c r="J12">
-        <v>6.772594282971401</v>
+        <v>4.926130951179076</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>16.44973207205572</v>
+        <v>12.53641741200778</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>24.17948237496434</v>
+        <v>16.21009335036715</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>37.3298022202136</v>
+        <v>41.38946321159651</v>
       </c>
       <c r="C13">
-        <v>22.69818734126365</v>
+        <v>30.5138059932008</v>
       </c>
       <c r="D13">
-        <v>11.76040711059719</v>
+        <v>7.956196109371541</v>
       </c>
       <c r="E13">
-        <v>10.18852609435026</v>
+        <v>5.595709393305412</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3.832354492230624</v>
+        <v>2.05381102365495</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>46.48173601547916</v>
+        <v>40.19034907135911</v>
       </c>
       <c r="J13">
-        <v>6.771465032283574</v>
+        <v>4.920289753604646</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>16.44882085202581</v>
+        <v>12.51378315370846</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>24.18129717996948</v>
+        <v>16.2160121834127</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>37.26326991123002</v>
+        <v>41.00425781811546</v>
       </c>
       <c r="C14">
-        <v>22.62493208200134</v>
+        <v>30.19338809257987</v>
       </c>
       <c r="D14">
-        <v>11.76150634917033</v>
+        <v>7.923937882224667</v>
       </c>
       <c r="E14">
-        <v>10.19133122071098</v>
+        <v>5.601618692004956</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3.833369410503339</v>
+        <v>2.057709445469265</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>46.45803738531892</v>
+        <v>39.94789184926312</v>
       </c>
       <c r="J14">
-        <v>6.767775994333662</v>
+        <v>4.901297992241084</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>16.44593365169356</v>
+        <v>12.44030383386326</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>24.18726682428051</v>
+        <v>16.23562408427292</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>37.22266915409218</v>
+        <v>40.7683784993501</v>
       </c>
       <c r="C15">
-        <v>22.58008602512001</v>
+        <v>29.99700007408991</v>
       </c>
       <c r="D15">
-        <v>11.76221937732318</v>
+        <v>7.904349634698692</v>
       </c>
       <c r="E15">
-        <v>10.19306106852305</v>
+        <v>5.605260167166107</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>3.833994369172411</v>
+        <v>2.060090014943926</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>46.44370266786381</v>
+        <v>39.80038695205138</v>
       </c>
       <c r="J15">
-        <v>6.765511502889463</v>
+        <v>4.889707551940086</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>16.44423008217836</v>
+        <v>12.39554857367216</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>24.19096269844512</v>
+        <v>16.24786970916719</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>36.99238620866214</v>
+        <v>39.41691116428689</v>
       </c>
       <c r="C16">
-        <v>22.32354632288603</v>
+        <v>28.87910648219803</v>
       </c>
       <c r="D16">
-        <v>11.76691379694924</v>
+        <v>7.794604645141848</v>
       </c>
       <c r="E16">
-        <v>10.20315266996039</v>
+        <v>5.626458341449383</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.837626363977189</v>
+        <v>2.073635779908549</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>46.36433930526083</v>
+        <v>38.96973074426035</v>
       </c>
       <c r="J16">
-        <v>6.752460146774516</v>
+        <v>4.823872458752497</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>16.4354627973653</v>
+        <v>12.14275337054584</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>24.21274348736426</v>
+        <v>16.32142172437364</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>36.85329650091154</v>
+        <v>38.5873133415835</v>
       </c>
       <c r="C17">
-        <v>22.16665375550928</v>
+        <v>28.21193872397668</v>
       </c>
       <c r="D17">
-        <v>11.77033610857333</v>
+        <v>7.729405778916229</v>
       </c>
       <c r="E17">
-        <v>10.20950322180014</v>
+        <v>5.639753232647656</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.839899801078811</v>
+        <v>2.08187579226255</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>46.31813878778836</v>
+        <v>38.47241440268979</v>
       </c>
       <c r="J17">
-        <v>6.744386951371406</v>
+        <v>4.783939618619161</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>16.43097236051115</v>
+        <v>11.99076081696484</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>24.22664064876396</v>
+        <v>16.36936618109948</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>36.77411876730594</v>
+        <v>38.10969946436047</v>
       </c>
       <c r="C18">
-        <v>22.07662408798174</v>
+        <v>27.82737054903523</v>
       </c>
       <c r="D18">
-        <v>11.77250370784539</v>
+        <v>7.692645987427</v>
       </c>
       <c r="E18">
-        <v>10.21321471835117</v>
+        <v>5.647505456015349</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.841224144977589</v>
+        <v>2.086595435824432</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>46.29248016802153</v>
+        <v>38.19059210242412</v>
       </c>
       <c r="J18">
-        <v>6.739718920292042</v>
+        <v>4.76111406789126</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>16.4287158768942</v>
+        <v>11.9044050438826</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>24.23483022354695</v>
+        <v>16.39791022200959</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>36.74745388926959</v>
+        <v>37.94788844431876</v>
       </c>
       <c r="C19">
-        <v>22.04618085887602</v>
+        <v>27.69699802607242</v>
       </c>
       <c r="D19">
-        <v>11.77327181158328</v>
+        <v>7.680323462423059</v>
       </c>
       <c r="E19">
-        <v>10.21448148468984</v>
+        <v>5.650148211128323</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.841675423497732</v>
+        <v>2.088190543789371</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>46.28394977544475</v>
+        <v>38.09587212674443</v>
       </c>
       <c r="J19">
-        <v>6.738134183962691</v>
+        <v>4.753408122844887</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>16.4280079043626</v>
+        <v>11.87534373473818</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>24.23763674477119</v>
+        <v>16.40773484340851</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>36.86801813749467</v>
+        <v>38.67566679758873</v>
       </c>
       <c r="C20">
-        <v>22.1833341491466</v>
+        <v>28.283040574206</v>
       </c>
       <c r="D20">
-        <v>11.76995117974907</v>
+        <v>7.736268773710157</v>
       </c>
       <c r="E20">
-        <v>10.20882110960747</v>
+        <v>5.638327037775203</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.839656060535841</v>
+        <v>2.081000802830231</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>46.32296226326257</v>
+        <v>38.52491170792183</v>
       </c>
       <c r="J20">
-        <v>6.745248895442357</v>
+        <v>4.78817524588371</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>16.43141660309265</v>
+        <v>12.00682888872627</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>24.22514094644653</v>
+        <v>16.36416078350753</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>37.28278046630648</v>
+        <v>41.11738472964112</v>
       </c>
       <c r="C21">
-        <v>22.64644391151966</v>
+        <v>30.28752620921377</v>
       </c>
       <c r="D21">
-        <v>11.76117519925072</v>
+        <v>7.933377020274903</v>
       </c>
       <c r="E21">
-        <v>10.19050486486036</v>
+        <v>5.599878419891639</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>3.833070618736864</v>
+        <v>2.056565951439989</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>46.46496045637836</v>
+        <v>40.0188954904667</v>
       </c>
       <c r="J21">
-        <v>6.768860564419779</v>
+        <v>4.906867293201238</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>16.44676816259936</v>
+        <v>12.46183327339567</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>24.18550520351687</v>
+        <v>16.22981460570755</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>37.56072181477339</v>
+        <v>42.81306153853843</v>
       </c>
       <c r="C22">
-        <v>22.95031362523637</v>
+        <v>31.6142811975742</v>
       </c>
       <c r="D22">
-        <v>11.7572166031452</v>
+        <v>8.069732610372457</v>
       </c>
       <c r="E22">
-        <v>10.17905492214125</v>
+        <v>5.575724334578305</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>3.82891416778088</v>
+        <v>2.040284825345128</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>46.56588545666956</v>
+        <v>41.0395763862268</v>
       </c>
       <c r="J22">
-        <v>6.784074947299635</v>
+        <v>4.986276255620925</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>16.45970708843205</v>
+        <v>12.77033191475201</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>24.16135848602793</v>
+        <v>16.15223543442892</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>37.41177327360928</v>
+        <v>41.89736545590802</v>
       </c>
       <c r="C23">
-        <v>22.78805501955755</v>
+        <v>30.90637365026178</v>
       </c>
       <c r="D23">
-        <v>11.75916663566725</v>
+        <v>7.996215517496824</v>
       </c>
       <c r="E23">
-        <v>10.18511846813027</v>
+        <v>5.588524349628346</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>3.831119114034911</v>
+        <v>2.049010333303304</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>46.51127828062978</v>
+        <v>40.49039040391854</v>
       </c>
       <c r="J23">
-        <v>6.775974554533112</v>
+        <v>4.943694543631706</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>16.45253551446789</v>
+        <v>12.60456840579064</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>24.17408475999057</v>
+        <v>16.19261640265075</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>36.86136002988139</v>
+        <v>38.635724339174</v>
       </c>
       <c r="C24">
-        <v>22.17579240622461</v>
+        <v>28.2508986164876</v>
       </c>
       <c r="D24">
-        <v>11.77012458294628</v>
+        <v>7.733163768463235</v>
       </c>
       <c r="E24">
-        <v>10.20912930411486</v>
+        <v>5.638971481875283</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.839766201689229</v>
+        <v>2.081396439143654</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>46.32077875814375</v>
+        <v>38.50116499932142</v>
       </c>
       <c r="J24">
-        <v>6.74485929353143</v>
+        <v>4.786259912220488</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>16.43121474832915</v>
+        <v>11.99956133148823</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>24.22581833928936</v>
+        <v>16.36651110722955</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>36.29935841501833</v>
+        <v>35.13731359281646</v>
       </c>
       <c r="C25">
-        <v>21.5238433423931</v>
+        <v>25.42418171352386</v>
       </c>
       <c r="D25">
-        <v>11.78955653536539</v>
+        <v>7.477437604085845</v>
       </c>
       <c r="E25">
-        <v>10.23727986686331</v>
+        <v>5.697413284815819</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.849733690257686</v>
+        <v>2.115619795126594</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>46.15026320640271</v>
+        <v>36.51485576658408</v>
       </c>
       <c r="J25">
-        <v>6.710357217653325</v>
+        <v>4.62171946060028</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>16.42068832258454</v>
+        <v>11.38731208472467</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>24.28912086315821</v>
+        <v>16.59055176518098</v>
       </c>
       <c r="O25">
         <v>0</v>
